--- a/الجدول_الاسبوعي_التاسع.xlsx
+++ b/الجدول_الاسبوعي_التاسع.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ad2500ab36ff184/المستندات/University-Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{4F2D500E-164F-4A45-BCF3-BA16EC59A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92122B51-A33A-4633-922A-2D0E40AB93C3}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{4F2D500E-164F-4A45-BCF3-BA16EC59A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC82430B-23B2-4A37-B7D6-5522B802D4B6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F85218B1-7695-4B5F-935A-7A09F5576024}"/>
   </bookViews>
@@ -145,10 +145,6 @@
     <t>م. د زينب راضي</t>
   </si>
   <si>
-    <t>دراسة: المحاضرات المتراكمة
-دراسة + كوز: المحاضرة الخامسة</t>
-  </si>
-  <si>
     <t>📃القاء عرض تقديمي</t>
   </si>
   <si>
@@ -156,10 +152,6 @@
   </si>
   <si>
     <t>محاضرة جديدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> حل: لا جديد
-مراجعة: المواضيع المتراكمة</t>
   </si>
   <si>
     <t>تسليم التقرير/ العرض التقديمي
@@ -211,14 +203,24 @@
 دراسة: المحاضرة المتراكمة</t>
   </si>
   <si>
-    <t>كتابة تقرير</t>
+    <t>كتابة تقرير
+(الموعد: لحد نهاية الكورس)
+(التفاصيل: لم تحدد بعد)</t>
+  </si>
+  <si>
+    <t>دراسة: المحاضرات المتراكمة
+♦️كوز اسبوعي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حل: لا يوجد واجبات جديدة
+مراجعة: المواضيع المتراكمة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,23 +313,15 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -385,56 +379,56 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G45"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,617 +789,651 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="B31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
+      <c r="A37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E35"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F41:G45"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C25"/>
+    <mergeCell ref="D21:E25"/>
+    <mergeCell ref="F21:G25"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C15"/>
+    <mergeCell ref="D11:E15"/>
+    <mergeCell ref="F11:G15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F31:G35"/>
+    <mergeCell ref="D41:E45"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B41:C45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B31:C35"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B7:C7"/>
@@ -1422,56 +1450,22 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E35"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:C35"/>
-    <mergeCell ref="F31:G35"/>
-    <mergeCell ref="D41:E45"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C25"/>
-    <mergeCell ref="D21:E25"/>
-    <mergeCell ref="F21:G25"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B41:C45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B11:C15"/>
-    <mergeCell ref="D11:E15"/>
-    <mergeCell ref="F11:G15"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
